--- a/Kanji_N4_edit.xlsx
+++ b/Kanji_N4_edit.xlsx
@@ -107,7 +107,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D186"/>
+  <dimension ref="A1:D350"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -143,7 +143,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>セイ、セ</t>
+          <t>セ</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
@@ -351,7 +351,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>タイ、テイ</t>
+          <t>タイ</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>ケイ、キョウ</t>
+          <t>キョウ</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>コウ、ク</t>
+          <t>コウ</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>ナイ、ダイ</t>
+          <t>ナイ</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>セツ、サイ</t>
+          <t>セツ</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>セイ、ショウ</t>
+          <t>セイ</t>
         </is>
       </c>
       <c r="C52" s="0" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="C69" s="0" t="inlineStr">
         <is>
-          <t>かえ%る&amp;、かえ%す&amp;</t>
+          <t>かえ%る&amp;&amp;</t>
         </is>
       </c>
       <c r="D69" s="0" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>ケン、コン</t>
+          <t>ケン</t>
         </is>
       </c>
       <c r="C72" s="0" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>アク、オ</t>
+          <t>アク</t>
         </is>
       </c>
       <c r="C81" s="0" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B176" s="0" t="inlineStr">
         <is>
-          <t>オン、イン</t>
+          <t/>
         </is>
       </c>
       <c r="C176" s="0" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="B184" s="0" t="inlineStr">
         <is>
-          <t>ケン、ゲン</t>
+          <t>ケン</t>
         </is>
       </c>
       <c r="C184" s="0" t="inlineStr">
@@ -4088,6 +4088,3614 @@
         </is>
       </c>
       <c r="D186" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
+      <c r="A187" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B187" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C187" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D187" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
+      <c r="A188" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B188" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C188" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D188" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
+      <c r="A189" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B189" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C189" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D189" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
+      <c r="A190" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B190" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C190" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D190" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
+      <c r="A191" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B191" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C191" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D191" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
+      <c r="A192" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B192" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C192" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D192" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
+      <c r="A193" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B193" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C193" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D193" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
+      <c r="A194" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B194" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C194" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D194" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
+      <c r="A195" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B195" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C195" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D195" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
+      <c r="A196" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B196" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C196" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D196" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
+      <c r="A197" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B197" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C197" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D197" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
+      <c r="A198" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B198" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C198" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D198" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
+      <c r="A199" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B199" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C199" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D199" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
+      <c r="A200" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B200" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C200" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D200" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
+      <c r="A201" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B201" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C201" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D201" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
+      <c r="A202" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B202" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C202" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D202" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
+      <c r="A203" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B203" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C203" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D203" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
+      <c r="A204" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B204" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C204" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D204" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
+      <c r="A205" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B205" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C205" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D205" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
+      <c r="A206" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B206" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C206" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D206" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
+      <c r="A207" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B207" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C207" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D207" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
+      <c r="A208" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B208" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C208" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D208" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
+      <c r="A209" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B209" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C209" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D209" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
+      <c r="A210" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B210" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C210" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D210" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
+      <c r="A211" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B211" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C211" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D211" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
+      <c r="A212" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B212" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C212" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D212" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
+      <c r="A213" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B213" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C213" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D213" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
+      <c r="A214" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B214" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C214" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D214" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
+      <c r="A215" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B215" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C215" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D215" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
+      <c r="A216" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B216" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C216" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D216" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
+      <c r="A217" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B217" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C217" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D217" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
+      <c r="A218" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B218" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C218" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D218" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
+      <c r="A219" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B219" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C219" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D219" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
+      <c r="A220" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B220" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C220" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D220" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
+      <c r="A221" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B221" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C221" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D221" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
+      <c r="A222" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B222" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C222" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D222" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
+      <c r="A223" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B223" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C223" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D223" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
+      <c r="A224" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B224" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C224" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D224" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="225">
+      <c r="A225" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B225" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C225" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D225" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="226">
+      <c r="A226" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B226" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C226" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D226" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="227">
+      <c r="A227" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B227" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C227" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D227" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="228">
+      <c r="A228" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B228" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C228" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D228" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="229">
+      <c r="A229" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B229" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C229" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D229" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="230">
+      <c r="A230" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B230" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C230" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D230" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="231">
+      <c r="A231" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B231" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C231" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D231" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="232">
+      <c r="A232" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B232" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C232" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D232" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="233">
+      <c r="A233" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B233" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C233" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D233" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="234">
+      <c r="A234" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B234" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C234" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D234" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="235">
+      <c r="A235" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B235" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C235" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D235" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="236">
+      <c r="A236" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B236" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C236" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D236" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="237">
+      <c r="A237" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B237" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C237" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D237" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="238">
+      <c r="A238" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B238" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C238" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D238" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="239">
+      <c r="A239" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B239" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C239" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D239" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="240">
+      <c r="A240" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B240" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C240" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D240" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="241">
+      <c r="A241" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B241" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C241" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D241" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="242">
+      <c r="A242" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B242" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C242" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D242" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="243">
+      <c r="A243" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B243" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C243" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D243" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="244">
+      <c r="A244" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B244" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C244" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D244" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="245">
+      <c r="A245" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B245" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C245" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D245" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="246">
+      <c r="A246" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B246" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C246" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D246" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="247">
+      <c r="A247" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B247" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C247" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D247" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="248">
+      <c r="A248" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B248" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C248" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D248" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="249">
+      <c r="A249" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B249" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C249" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D249" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="250">
+      <c r="A250" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B250" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C250" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D250" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="251">
+      <c r="A251" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B251" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C251" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D251" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="252">
+      <c r="A252" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B252" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C252" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D252" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="253">
+      <c r="A253" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B253" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C253" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D253" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="254">
+      <c r="A254" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B254" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C254" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D254" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="255">
+      <c r="A255" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B255" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C255" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D255" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="256">
+      <c r="A256" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B256" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C256" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D256" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="257">
+      <c r="A257" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B257" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C257" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D257" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="258">
+      <c r="A258" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B258" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C258" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D258" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="259">
+      <c r="A259" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B259" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C259" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D259" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="260">
+      <c r="A260" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B260" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C260" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D260" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="261">
+      <c r="A261" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B261" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C261" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D261" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="262">
+      <c r="A262" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B262" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C262" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D262" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="263">
+      <c r="A263" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B263" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C263" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D263" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="264">
+      <c r="A264" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B264" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C264" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D264" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="265">
+      <c r="A265" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B265" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C265" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D265" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="266">
+      <c r="A266" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B266" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C266" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D266" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="267">
+      <c r="A267" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B267" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C267" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D267" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="268">
+      <c r="A268" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B268" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C268" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D268" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="269">
+      <c r="A269" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B269" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C269" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D269" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="270">
+      <c r="A270" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B270" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C270" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D270" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="271">
+      <c r="A271" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B271" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C271" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D271" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="272">
+      <c r="A272" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B272" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C272" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D272" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="273">
+      <c r="A273" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B273" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C273" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D273" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="274">
+      <c r="A274" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B274" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C274" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D274" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="275">
+      <c r="A275" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B275" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C275" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D275" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="276">
+      <c r="A276" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B276" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C276" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D276" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="277">
+      <c r="A277" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B277" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C277" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D277" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="278">
+      <c r="A278" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B278" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C278" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D278" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="279">
+      <c r="A279" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B279" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C279" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D279" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="280">
+      <c r="A280" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B280" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C280" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D280" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="281">
+      <c r="A281" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B281" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C281" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D281" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="282">
+      <c r="A282" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B282" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C282" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D282" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="283">
+      <c r="A283" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B283" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C283" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D283" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="284">
+      <c r="A284" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B284" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C284" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D284" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="285">
+      <c r="A285" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B285" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C285" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D285" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="286">
+      <c r="A286" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B286" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C286" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D286" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="287">
+      <c r="A287" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B287" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C287" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D287" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="288">
+      <c r="A288" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B288" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C288" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D288" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="289">
+      <c r="A289" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B289" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C289" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D289" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="290">
+      <c r="A290" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B290" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C290" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D290" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="291">
+      <c r="A291" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B291" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C291" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D291" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="292">
+      <c r="A292" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B292" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C292" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D292" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="293">
+      <c r="A293" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B293" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C293" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D293" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="294">
+      <c r="A294" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B294" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C294" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D294" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="295">
+      <c r="A295" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B295" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C295" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D295" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="296">
+      <c r="A296" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B296" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C296" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D296" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="297">
+      <c r="A297" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B297" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C297" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D297" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="298">
+      <c r="A298" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B298" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C298" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D298" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="299">
+      <c r="A299" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B299" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C299" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D299" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="300">
+      <c r="A300" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B300" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C300" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D300" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="301">
+      <c r="A301" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B301" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C301" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D301" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="302">
+      <c r="A302" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B302" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C302" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D302" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="303">
+      <c r="A303" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B303" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C303" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D303" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="304">
+      <c r="A304" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B304" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C304" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D304" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="305">
+      <c r="A305" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B305" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C305" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D305" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="306">
+      <c r="A306" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B306" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C306" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D306" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="307">
+      <c r="A307" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B307" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C307" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D307" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="308">
+      <c r="A308" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B308" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C308" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D308" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="309">
+      <c r="A309" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B309" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C309" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D309" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="310">
+      <c r="A310" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B310" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C310" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D310" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="311">
+      <c r="A311" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B311" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C311" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D311" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="312">
+      <c r="A312" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B312" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C312" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D312" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="313">
+      <c r="A313" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B313" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C313" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D313" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="314">
+      <c r="A314" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B314" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C314" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D314" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="315">
+      <c r="A315" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B315" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C315" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D315" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="316">
+      <c r="A316" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B316" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C316" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D316" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="317">
+      <c r="A317" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B317" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C317" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D317" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="318">
+      <c r="A318" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B318" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C318" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D318" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="319">
+      <c r="A319" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B319" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C319" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D319" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="320">
+      <c r="A320" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B320" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C320" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D320" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="321">
+      <c r="A321" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B321" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C321" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D321" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="322">
+      <c r="A322" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B322" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C322" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D322" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="323">
+      <c r="A323" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B323" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C323" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D323" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="324">
+      <c r="A324" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B324" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C324" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D324" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="325">
+      <c r="A325" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B325" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C325" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D325" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="326">
+      <c r="A326" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B326" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C326" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D326" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="327">
+      <c r="A327" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B327" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C327" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D327" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="328">
+      <c r="A328" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B328" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C328" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D328" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="329">
+      <c r="A329" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B329" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C329" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D329" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="330">
+      <c r="A330" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B330" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C330" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D330" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="331">
+      <c r="A331" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B331" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C331" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D331" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="332">
+      <c r="A332" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B332" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C332" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D332" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="333">
+      <c r="A333" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B333" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C333" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D333" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="334">
+      <c r="A334" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B334" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C334" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D334" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="335">
+      <c r="A335" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B335" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C335" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D335" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="336">
+      <c r="A336" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B336" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C336" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D336" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="337">
+      <c r="A337" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B337" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C337" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D337" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="338">
+      <c r="A338" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B338" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C338" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D338" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="339">
+      <c r="A339" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B339" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C339" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D339" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="340">
+      <c r="A340" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B340" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C340" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D340" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="341">
+      <c r="A341" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B341" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C341" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D341" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="342">
+      <c r="A342" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B342" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C342" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D342" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="343">
+      <c r="A343" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B343" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C343" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D343" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="344">
+      <c r="A344" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B344" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C344" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D344" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="345">
+      <c r="A345" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B345" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C345" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D345" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="346">
+      <c r="A346" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B346" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C346" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D346" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="347">
+      <c r="A347" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B347" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C347" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D347" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="348">
+      <c r="A348" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B348" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C348" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D348" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="349">
+      <c r="A349" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B349" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C349" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D349" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="350">
+      <c r="A350" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B350" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C350" s="0" t="inlineStr">
+        <is>
+          <t>くろ&amp;、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D350" s="0" t="inlineStr">
         <is>
           <t>черный цвет, черный</t>
         </is>

--- a/Kanji_N4_edit.xlsx
+++ b/Kanji_N4_edit.xlsx
@@ -107,7 +107,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D350"/>
+  <dimension ref="A1:D372"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="C107" s="0" t="inlineStr">
         <is>
-          <t>うた&amp;、うた%う&amp;</t>
+          <t>うた、うた%う&amp;</t>
         </is>
       </c>
       <c r="D107" s="0" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="C154" s="0" t="inlineStr">
         <is>
-          <t>おや&amp;、した%しい&amp;、した%しむ&amp;</t>
+          <t>おや、した%しい&amp;、した%しむ&amp;</t>
         </is>
       </c>
       <c r="D154" s="0" t="inlineStr">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="C186" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D186" s="0" t="inlineStr">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="C187" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D187" s="0" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="C188" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D188" s="0" t="inlineStr">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="C189" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D189" s="0" t="inlineStr">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="C190" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D190" s="0" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="C191" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D191" s="0" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="C192" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D192" s="0" t="inlineStr">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="C193" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D193" s="0" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="C194" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D194" s="0" t="inlineStr">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="C195" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D195" s="0" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="C196" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D196" s="0" t="inlineStr">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="C197" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D197" s="0" t="inlineStr">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="C198" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D198" s="0" t="inlineStr">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C199" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D199" s="0" t="inlineStr">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="C200" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D200" s="0" t="inlineStr">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="C201" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D201" s="0" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="C202" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D202" s="0" t="inlineStr">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="C203" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D203" s="0" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="C204" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D204" s="0" t="inlineStr">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="C205" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D205" s="0" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="C206" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D206" s="0" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="C207" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D207" s="0" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="C208" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D208" s="0" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="C209" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D209" s="0" t="inlineStr">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="C210" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D210" s="0" t="inlineStr">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="C211" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D211" s="0" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="C212" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D212" s="0" t="inlineStr">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C213" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D213" s="0" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="C214" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D214" s="0" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="C215" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D215" s="0" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="C216" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D216" s="0" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="C217" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D217" s="0" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="C218" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D218" s="0" t="inlineStr">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="C219" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D219" s="0" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="C220" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D220" s="0" t="inlineStr">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="C221" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D221" s="0" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="C222" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D222" s="0" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="C223" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D223" s="0" t="inlineStr">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="C224" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D224" s="0" t="inlineStr">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="C225" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D225" s="0" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="C226" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D226" s="0" t="inlineStr">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="C227" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D227" s="0" t="inlineStr">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="C228" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D228" s="0" t="inlineStr">
@@ -5030,7 +5030,7 @@
       </c>
       <c r="C229" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D229" s="0" t="inlineStr">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="C230" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D230" s="0" t="inlineStr">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="C231" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D231" s="0" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="C232" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D232" s="0" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="C233" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D233" s="0" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="C234" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D234" s="0" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C235" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D235" s="0" t="inlineStr">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="C236" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D236" s="0" t="inlineStr">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="C237" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D237" s="0" t="inlineStr">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="C238" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D238" s="0" t="inlineStr">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="C239" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D239" s="0" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="C240" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D240" s="0" t="inlineStr">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C241" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D241" s="0" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="C242" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D242" s="0" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="C243" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D243" s="0" t="inlineStr">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="C244" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D244" s="0" t="inlineStr">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="C245" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D245" s="0" t="inlineStr">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="C246" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D246" s="0" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="C247" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D247" s="0" t="inlineStr">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="C248" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D248" s="0" t="inlineStr">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="C249" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D249" s="0" t="inlineStr">
@@ -5492,7 +5492,7 @@
       </c>
       <c r="C250" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D250" s="0" t="inlineStr">
@@ -5514,7 +5514,7 @@
       </c>
       <c r="C251" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D251" s="0" t="inlineStr">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="C252" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D252" s="0" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="C253" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D253" s="0" t="inlineStr">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="C254" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D254" s="0" t="inlineStr">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C255" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D255" s="0" t="inlineStr">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="C256" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D256" s="0" t="inlineStr">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="C257" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D257" s="0" t="inlineStr">
@@ -5668,7 +5668,7 @@
       </c>
       <c r="C258" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D258" s="0" t="inlineStr">
@@ -5690,7 +5690,7 @@
       </c>
       <c r="C259" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D259" s="0" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="C260" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D260" s="0" t="inlineStr">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="C261" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D261" s="0" t="inlineStr">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="C262" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D262" s="0" t="inlineStr">
@@ -5778,7 +5778,7 @@
       </c>
       <c r="C263" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D263" s="0" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="C264" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D264" s="0" t="inlineStr">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="C265" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D265" s="0" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="C266" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D266" s="0" t="inlineStr">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="C267" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D267" s="0" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="C268" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D268" s="0" t="inlineStr">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C269" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D269" s="0" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="C270" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D270" s="0" t="inlineStr">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="C271" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D271" s="0" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="C272" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D272" s="0" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="C273" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D273" s="0" t="inlineStr">
@@ -6020,7 +6020,7 @@
       </c>
       <c r="C274" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D274" s="0" t="inlineStr">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="C275" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D275" s="0" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="C276" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D276" s="0" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="C277" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D277" s="0" t="inlineStr">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="C278" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D278" s="0" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="C279" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D279" s="0" t="inlineStr">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="C280" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D280" s="0" t="inlineStr">
@@ -6174,7 +6174,7 @@
       </c>
       <c r="C281" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D281" s="0" t="inlineStr">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="C282" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D282" s="0" t="inlineStr">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="C283" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D283" s="0" t="inlineStr">
@@ -6240,7 +6240,7 @@
       </c>
       <c r="C284" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D284" s="0" t="inlineStr">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="C285" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D285" s="0" t="inlineStr">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="C286" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D286" s="0" t="inlineStr">
@@ -6306,7 +6306,7 @@
       </c>
       <c r="C287" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D287" s="0" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="C288" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D288" s="0" t="inlineStr">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="C289" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D289" s="0" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="C290" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D290" s="0" t="inlineStr">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="C291" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D291" s="0" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="C292" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D292" s="0" t="inlineStr">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="C293" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D293" s="0" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="C294" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D294" s="0" t="inlineStr">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="C295" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D295" s="0" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="C296" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D296" s="0" t="inlineStr">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="C297" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D297" s="0" t="inlineStr">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="C298" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D298" s="0" t="inlineStr">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="C299" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D299" s="0" t="inlineStr">
@@ -6592,7 +6592,7 @@
       </c>
       <c r="C300" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D300" s="0" t="inlineStr">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="C301" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D301" s="0" t="inlineStr">
@@ -6636,7 +6636,7 @@
       </c>
       <c r="C302" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D302" s="0" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="C303" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D303" s="0" t="inlineStr">
@@ -6680,7 +6680,7 @@
       </c>
       <c r="C304" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D304" s="0" t="inlineStr">
@@ -6702,7 +6702,7 @@
       </c>
       <c r="C305" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D305" s="0" t="inlineStr">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="C306" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D306" s="0" t="inlineStr">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="C307" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D307" s="0" t="inlineStr">
@@ -6768,7 +6768,7 @@
       </c>
       <c r="C308" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D308" s="0" t="inlineStr">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="C309" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D309" s="0" t="inlineStr">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="C310" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D310" s="0" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="C311" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D311" s="0" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="C312" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D312" s="0" t="inlineStr">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="C313" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D313" s="0" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="C314" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D314" s="0" t="inlineStr">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="C315" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D315" s="0" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="C316" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D316" s="0" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="C317" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D317" s="0" t="inlineStr">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="C318" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D318" s="0" t="inlineStr">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="C319" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D319" s="0" t="inlineStr">
@@ -7032,7 +7032,7 @@
       </c>
       <c r="C320" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D320" s="0" t="inlineStr">
@@ -7054,7 +7054,7 @@
       </c>
       <c r="C321" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D321" s="0" t="inlineStr">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="C322" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D322" s="0" t="inlineStr">
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C323" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D323" s="0" t="inlineStr">
@@ -7120,7 +7120,7 @@
       </c>
       <c r="C324" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D324" s="0" t="inlineStr">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="C325" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D325" s="0" t="inlineStr">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="C326" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D326" s="0" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="C327" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D327" s="0" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="C328" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D328" s="0" t="inlineStr">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="C329" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D329" s="0" t="inlineStr">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="C330" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D330" s="0" t="inlineStr">
@@ -7274,7 +7274,7 @@
       </c>
       <c r="C331" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D331" s="0" t="inlineStr">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="C332" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D332" s="0" t="inlineStr">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="C333" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D333" s="0" t="inlineStr">
@@ -7340,7 +7340,7 @@
       </c>
       <c r="C334" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D334" s="0" t="inlineStr">
@@ -7362,7 +7362,7 @@
       </c>
       <c r="C335" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D335" s="0" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="C336" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D336" s="0" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="C337" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D337" s="0" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="C338" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D338" s="0" t="inlineStr">
@@ -7450,7 +7450,7 @@
       </c>
       <c r="C339" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D339" s="0" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="C340" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D340" s="0" t="inlineStr">
@@ -7494,7 +7494,7 @@
       </c>
       <c r="C341" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D341" s="0" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="C342" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D342" s="0" t="inlineStr">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="C343" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D343" s="0" t="inlineStr">
@@ -7560,7 +7560,7 @@
       </c>
       <c r="C344" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D344" s="0" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="C345" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D345" s="0" t="inlineStr">
@@ -7604,7 +7604,7 @@
       </c>
       <c r="C346" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D346" s="0" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="C347" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D347" s="0" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="C348" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D348" s="0" t="inlineStr">
@@ -7670,7 +7670,7 @@
       </c>
       <c r="C349" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D349" s="0" t="inlineStr">
@@ -7692,10 +7692,494 @@
       </c>
       <c r="C350" s="0" t="inlineStr">
         <is>
-          <t>くろ&amp;、くろ%い&amp;</t>
+          <t>くろ、くろ%い&amp;</t>
         </is>
       </c>
       <c r="D350" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="351">
+      <c r="A351" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B351" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C351" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D351" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="352">
+      <c r="A352" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B352" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C352" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D352" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="353">
+      <c r="A353" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B353" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C353" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D353" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="354">
+      <c r="A354" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B354" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C354" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D354" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="355">
+      <c r="A355" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B355" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C355" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D355" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="356">
+      <c r="A356" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B356" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C356" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D356" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="357">
+      <c r="A357" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B357" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C357" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D357" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="358">
+      <c r="A358" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B358" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C358" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D358" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="359">
+      <c r="A359" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B359" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C359" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D359" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="360">
+      <c r="A360" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B360" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C360" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D360" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="361">
+      <c r="A361" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B361" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C361" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D361" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="362">
+      <c r="A362" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B362" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C362" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D362" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="363">
+      <c r="A363" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B363" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C363" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D363" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="364">
+      <c r="A364" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B364" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C364" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D364" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="365">
+      <c r="A365" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B365" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C365" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D365" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="366">
+      <c r="A366" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B366" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C366" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D366" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="367">
+      <c r="A367" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B367" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C367" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D367" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="368">
+      <c r="A368" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B368" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C368" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D368" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="369">
+      <c r="A369" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B369" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C369" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D369" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="370">
+      <c r="A370" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B370" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C370" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D370" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="371">
+      <c r="A371" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B371" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C371" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D371" s="0" t="inlineStr">
+        <is>
+          <t>черный цвет, черный</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="372">
+      <c r="A372" s="0" t="inlineStr">
+        <is>
+          <t>黒</t>
+        </is>
+      </c>
+      <c r="B372" s="0" t="inlineStr">
+        <is>
+          <t>コク</t>
+        </is>
+      </c>
+      <c r="C372" s="0" t="inlineStr">
+        <is>
+          <t>くろ、くろ%い&amp;</t>
+        </is>
+      </c>
+      <c r="D372" s="0" t="inlineStr">
         <is>
           <t>черный цвет, черный</t>
         </is>
